--- a/SponGIS_Template/SponGIS_Meta_Record.xlsx
+++ b/SponGIS_Template/SponGIS_Meta_Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavies_mbp/Andy's Documents/Websites and comittees/SponGIS/Github/SponGIS/SponGIS_Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744CF232-84E6-9F4B-8652-A88B7490D0B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B424CD4-5E49-7647-8224-297F0F59AC88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="2280" windowWidth="28040" windowHeight="17440" xr2:uid="{C1006952-7FD4-3045-BB8C-52C163C09F1C}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>A short informative title for the dataset</t>
   </si>
   <si>
-    <t>Describe what the dataset contains in a succinct manner.</t>
-  </si>
-  <si>
     <t>Provide your contact details in the form: NAME, INSTITUTE, JOB TITLE, EMAIL, ADDRESS</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Provide a spatial location, either a polygon coordinate in the WellKnownText format, see example in row 10, as a list of coordinates (N, S, E, W) or as a shapefile that I can convert.</t>
+  </si>
+  <si>
+    <t>Describe what the dataset contains in a succinct manner. Make sure you include information on the data type(s), location(s), and any other pertinent information.</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="BE3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="BC4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BE4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="BC5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BE5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
@@ -635,12 +635,12 @@
         <v>13</v>
       </c>
       <c r="BC6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="BC7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:57" ht="17" x14ac:dyDescent="0.2">
@@ -664,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="BC8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:57" ht="136" x14ac:dyDescent="0.2">
@@ -675,22 +675,22 @@
         <v>15</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:57" ht="102" x14ac:dyDescent="0.2">
@@ -710,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>

--- a/SponGIS_Template/SponGIS_Meta_Record.xlsx
+++ b/SponGIS_Template/SponGIS_Meta_Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavies_mbp/Andy's Documents/Websites and comittees/SponGIS/Github/SponGIS/SponGIS_Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B424CD4-5E49-7647-8224-297F0F59AC88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2968C63-ED85-DF4F-ABE7-38FC52FA1D47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="2280" windowWidth="28040" windowHeight="17440" xr2:uid="{C1006952-7FD4-3045-BB8C-52C163C09F1C}"/>
   </bookViews>

--- a/SponGIS_Template/SponGIS_Meta_Record.xlsx
+++ b/SponGIS_Template/SponGIS_Meta_Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavies_mbp/Andy's Documents/Websites and comittees/SponGIS/Github/SponGIS/SponGIS_Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2968C63-ED85-DF4F-ABE7-38FC52FA1D47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC91E5B0-F8CA-244F-A0EA-42459F621148}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="2280" windowWidth="28040" windowHeight="17440" xr2:uid="{C1006952-7FD4-3045-BB8C-52C163C09F1C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Meta-data records for SponGIS</t>
   </si>
@@ -76,9 +76,6 @@
     <t>The spatial location can be a shapefile emailed to me, but keep one meta-data sheet (i.e. this sheet) per shapefile you send to make it easier</t>
   </si>
   <si>
-    <t>for me to generate the record.</t>
-  </si>
-  <si>
     <t>spatialLocation</t>
   </si>
   <si>
@@ -128,13 +125,22 @@
   </si>
   <si>
     <t>Describe what the dataset contains in a succinct manner. Make sure you include information on the data type(s), location(s), and any other pertinent information.</t>
+  </si>
+  <si>
+    <t>for me to generate the record. Once done email to Andy Davies (davies@uri.edu)</t>
+  </si>
+  <si>
+    <t>Email it to:</t>
+  </si>
+  <si>
+    <t>davies@uri.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +168,14 @@
       <i/>
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,10 +242,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -267,8 +282,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,7 +600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244E4E0D-31E0-5748-BC1F-4ACFC61BBAEA}">
   <dimension ref="A2:BE120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -605,18 +624,24 @@
         <v>9</v>
       </c>
       <c r="BE3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="BC4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BE4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
@@ -624,23 +649,23 @@
         <v>12</v>
       </c>
       <c r="BC5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BE5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="BC6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="BC7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:57" ht="17" x14ac:dyDescent="0.2">
@@ -661,10 +686,10 @@
         <v>10</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:57" ht="136" x14ac:dyDescent="0.2">
@@ -672,25 +697,25 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:57" ht="102" x14ac:dyDescent="0.2">
@@ -710,10 +735,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1718,6 +1743,9 @@
       <formula1>OpenDataDesignation</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{4610B667-2F90-1D4E-9A3D-9EBA4B24E8B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SponGIS_Template/SponGIS_Meta_Record.xlsx
+++ b/SponGIS_Template/SponGIS_Meta_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavies_mbp/Andy's Documents/Websites and comittees/SponGIS/Github/SponGIS/SponGIS_Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC91E5B0-F8CA-244F-A0EA-42459F621148}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66113190-2D92-2E45-90BC-0A8F6CD7FCC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="2280" windowWidth="28040" windowHeight="17440" xr2:uid="{C1006952-7FD4-3045-BB8C-52C163C09F1C}"/>
+    <workbookView xWindow="1240" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{C1006952-7FD4-3045-BB8C-52C163C09F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Meta-data records for SponGIS</t>
   </si>
@@ -94,15 +94,9 @@
     <t>Open</t>
   </si>
   <si>
-    <t>Physical Oceanographic</t>
-  </si>
-  <si>
     <t>Geological</t>
   </si>
   <si>
-    <t>Habitat Mapping</t>
-  </si>
-  <si>
     <t>Physiological Data</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>Not shareable</t>
   </si>
   <si>
-    <t>Photographic/Video Dataset</t>
-  </si>
-  <si>
     <t>POLYGON(( -28.37317 45.53283 , -28.24817 45.53283 , -28.24817 45.65783 , -28.37317 45.65783 ))</t>
   </si>
   <si>
@@ -127,13 +118,25 @@
     <t>Describe what the dataset contains in a succinct manner. Make sure you include information on the data type(s), location(s), and any other pertinent information.</t>
   </si>
   <si>
-    <t>for me to generate the record. Once done email to Andy Davies (davies@uri.edu)</t>
-  </si>
-  <si>
     <t>Email it to:</t>
   </si>
   <si>
-    <t>davies@uri.edu</t>
+    <t>for me to generate the record. Once done email to SponGIS (submissions@spongis.org)</t>
+  </si>
+  <si>
+    <t>submissions@spongis.org</t>
+  </si>
+  <si>
+    <t>Physical Oceanography- Bed</t>
+  </si>
+  <si>
+    <t>Physical Oceanography- Water Column</t>
+  </si>
+  <si>
+    <t>Benthic Mapping- Multibeam</t>
+  </si>
+  <si>
+    <t>Benthic Mapping- Photographic/Video</t>
   </si>
 </sst>
 </file>
@@ -600,9 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244E4E0D-31E0-5748-BC1F-4ACFC61BBAEA}">
   <dimension ref="A2:BE120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -632,16 +633,16 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BC4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="BE4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
@@ -649,23 +650,23 @@
         <v>12</v>
       </c>
       <c r="BC5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BE5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BC6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="BC7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:57" ht="17" x14ac:dyDescent="0.2">
@@ -689,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="BC8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:57" ht="136" x14ac:dyDescent="0.2">
@@ -700,7 +701,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>15</v>
@@ -712,10 +713,10 @@
         <v>17</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BC9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:57" ht="102" x14ac:dyDescent="0.2">
@@ -738,11 +739,14 @@
         <v>18</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
+      <c r="BC10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>

--- a/SponGIS_Template/SponGIS_Meta_Record.xlsx
+++ b/SponGIS_Template/SponGIS_Meta_Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavies_mbp/Andy's Documents/Websites and comittees/SponGIS/Github/SponGIS/SponGIS_Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66113190-2D92-2E45-90BC-0A8F6CD7FCC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56783D5D-C3CF-0948-AA8B-44342377C2D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{C1006952-7FD4-3045-BB8C-52C163C09F1C}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>POLYGON(( -28.37317 45.53283 , -28.24817 45.53283 , -28.24817 45.65783 , -28.37317 45.65783 ))</t>
   </si>
   <si>
-    <t>Provide a spatial location, either a polygon coordinate in the WellKnownText format, see example in row 10, as a list of coordinates (N, S, E, W) or as a shapefile that I can convert.</t>
-  </si>
-  <si>
     <t>Describe what the dataset contains in a succinct manner. Make sure you include information on the data type(s), location(s), and any other pertinent information.</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Benthic Mapping- Photographic/Video</t>
+  </si>
+  <si>
+    <t>Provide a spatial location, either a polygon coordinate in the WellKnownText format, see example in row 10, as a list of coordinates (N, S, E, W) or as a shapefile that I can convert (if a shapefile, add a filename in the field below).</t>
   </si>
 </sst>
 </file>
@@ -633,13 +633,13 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC4" t="s">
         <v>29</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>30</v>
       </c>
       <c r="BE4" t="s">
         <v>22</v>
@@ -650,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="BC5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BE5" t="s">
         <v>23</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC6" t="s">
         <v>19</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="BC7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:57" ht="17" x14ac:dyDescent="0.2">
@@ -690,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="BC8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:57" ht="136" x14ac:dyDescent="0.2">
@@ -701,7 +701,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>15</v>
@@ -713,7 +713,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="BC9" t="s">
         <v>20</v>

--- a/SponGIS_Template/SponGIS_Meta_Record.xlsx
+++ b/SponGIS_Template/SponGIS_Meta_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavies_mbp/Andy's Documents/Websites and comittees/SponGIS/Github/SponGIS/SponGIS_Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56783D5D-C3CF-0948-AA8B-44342377C2D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD0C9AD-A9E1-B942-8495-4E71F736C0A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{C1006952-7FD4-3045-BB8C-52C163C09F1C}"/>
+    <workbookView xWindow="1240" yWindow="1920" windowWidth="28040" windowHeight="17440" xr2:uid="{C1006952-7FD4-3045-BB8C-52C163C09F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <t>Benthic Mapping- Photographic/Video</t>
   </si>
   <si>
-    <t>Provide a spatial location, either a polygon coordinate in the WellKnownText format, see example in row 10, as a list of coordinates (N, S, E, W) or as a shapefile that I can convert (if a shapefile, add a filename in the field below).</t>
+    <t>Provide a spatial location, either a polygon coordinate in the WellKnownText format, see example in row 10, as a list of coordinates in a clockwise fashion ie top left, top right, bottom right, bottom left) or as a shapefile that I can convert (if a shapefile, add a filename in the field below). This tool can also be used to generate WKT: https://arthur-e.github.io/Wicket/sandbox-gmaps3.html</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244E4E0D-31E0-5748-BC1F-4ACFC61BBAEA}">
   <dimension ref="A2:BE120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -693,7 +695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="136" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" ht="255" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
